--- a/NOVO_HAMBURGO.xlsx
+++ b/NOVO_HAMBURGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CEB1307-25B1-489E-8288-C16A00436332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE438344-EC2D-4BB4-9789-484E2A3E469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1142,7 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1202,36 +1189,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,14 +1233,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,7 +1291,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FBB31E0A-853C-4775-9171-B161E3EF9B25}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{82D4E25E-D836-4C91-9438-2AC06C389926}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1363,10 +1321,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16F0530-F611-4F8F-8C43-C5611DBCF8E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C198B6-722E-42F5-8443-D9DC07A5D87F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1362,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501AEFA3-E9C7-402B-99C7-A451BFAB870D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD5AB79-B77A-4DBA-BF65-A2F22958DB0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1425,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A553C01-3B97-4288-A365-6029753B05AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370C2007-B829-459F-AC0C-E95A09487D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1444,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C0A233-B211-2836-AF43-83EE7B0B0FBC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C1B40E-66C5-BC35-E609-33370B3F591B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1535,7 +1493,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961105F5-6DB3-7A01-5E97-650608ECC5E5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B55678-2874-72F2-AAA7-18F5DA9D5D5D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1554,7 +1512,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B4D616-0C6D-29E7-217D-8C12330554EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95F8F8C-91B7-8FB8-E761-AFDCEFE1F500}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1585,7 +1543,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D64A6CF-A93C-F796-BE2F-F65FA5657514}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11007BEE-19CE-AC7D-9ABA-973BB9C2A7AA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1616,7 +1574,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BA4171-8057-5F16-2642-0C00197AEE03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6935F90D-79E4-F354-CA8B-937848068322}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1659,7 +1617,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B77263B-663A-4878-968B-F4144F90F39A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1894F57E-33BE-4DB7-8BB1-877B56AC6ABC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1655,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC929B8-7EEC-47BA-840F-0D856B82D84D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB63DF5-A2FE-4F89-B0F1-164119CE66A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1698,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE92178-64CB-4A69-A6F4-94CBCF9E1D6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E72958-E879-458A-A573-C28C0D3AC156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE83CB-0CBE-49FB-AB1A-16CD401ACFD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15818879-2972-4C59-8027-F8D18D5774A2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2065,98 +2023,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="41"/>
-    <col min="6" max="6" width="2" style="41" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="41" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="41"/>
+    <col min="1" max="5" width="12.5703125" style="38"/>
+    <col min="6" max="6" width="2" style="38" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="40"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="40"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="40"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="40"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="40"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="40"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="40"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="40"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="40"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="40"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="40"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="40"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="40"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="40"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="40"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="40"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="40"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="40"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="40"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="40"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="40"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="40"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="40"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="40"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="40"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="40"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="40"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="40"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="40"/>
+      <c r="F29" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5486,19 +5444,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5521,90 +5479,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5622,16 +5580,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5665,7 +5623,7 @@
       <c r="J1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5679,10 +5637,10 @@
       <c r="C2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>169</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>16.899999999999999</v>
       </c>
       <c r="F2" s="2">
@@ -5700,7 +5658,7 @@
       <c r="J2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="23">
         <v>704</v>
       </c>
     </row>
@@ -5725,54 +5683,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="24" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5783,41 +5742,41 @@
       <c r="B2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="27">
         <v>45870</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="29">
         <v>76109</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="29">
         <v>9323</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="31" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5848,25 +5807,24 @@
       <c r="B1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="36">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="33">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="36">
         <v>222</v>
       </c>
-      <c r="F1" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="39">
-        <v>222</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="C2" s="34">
         <v>1.468059780452321E-2</v>
       </c>
     </row>

--- a/NOVO_HAMBURGO.xlsx
+++ b/NOVO_HAMBURGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE438344-EC2D-4BB4-9789-484E2A3E469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2487A199-029F-4C5D-97FF-792ACFB34E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{82D4E25E-D836-4C91-9438-2AC06C389926}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{63C9CF4E-60E4-4D74-A558-50792BBE8C2A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,10 +1321,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C198B6-722E-42F5-8443-D9DC07A5D87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6675AC1D-041B-46C3-9CFA-BF6288272A04}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD5AB79-B77A-4DBA-BF65-A2F22958DB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F305F534-CDEE-406E-880A-6D5153E841AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370C2007-B829-459F-AC0C-E95A09487D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFE5C1B-158A-4B24-AA7F-5B1680F02F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C1B40E-66C5-BC35-E609-33370B3F591B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E239B0-3AB6-5713-7C78-30D91CF79AC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B55678-2874-72F2-AAA7-18F5DA9D5D5D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA105B4-51A7-9A4A-04EC-9F2B40593C10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95F8F8C-91B7-8FB8-E761-AFDCEFE1F500}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2899F0F0-D2C3-D106-464D-BE3D8CCB79BD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11007BEE-19CE-AC7D-9ABA-973BB9C2A7AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEC6E1E-498C-20DE-BB6E-CAE3F57B16DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6935F90D-79E4-F354-CA8B-937848068322}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDBAAE5-245D-8668-CE72-0785A00B70B8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1894F57E-33BE-4DB7-8BB1-877B56AC6ABC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D60D946-E7BB-499C-A0BA-C8C8ACB9976E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1655,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB63DF5-A2FE-4F89-B0F1-164119CE66A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B496B0B-8BE6-42DE-B82D-3F09A1DE514C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1698,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E72958-E879-458A-A573-C28C0D3AC156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A109F887-BD4F-4A2E-9203-9661E401E8B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15818879-2972-4C59-8027-F8D18D5774A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9EF6D-4D55-4A22-8012-82050D8B8A5E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/NOVO_HAMBURGO.xlsx
+++ b/NOVO_HAMBURGO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2487A199-029F-4C5D-97FF-792ACFB34E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2733568-999F-4638-9496-2CBF34DE919B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="325">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1002,12 +1001,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,27 +1264,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{63C9CF4E-60E4-4D74-A558-50792BBE8C2A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F58AF7A5-58CB-4170-A4FE-CD15088DC7E1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,10 +1299,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6675AC1D-041B-46C3-9CFA-BF6288272A04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0429BD6-BAE8-4843-870E-8B9D8A1446CF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1340,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F305F534-CDEE-406E-880A-6D5153E841AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D60625C-1B8C-429D-8675-7B282348CFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1403,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFE5C1B-158A-4B24-AA7F-5B1680F02F02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339B63CA-F65A-4957-A05E-57DCB2112B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1422,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E239B0-3AB6-5713-7C78-30D91CF79AC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECDDAFE-A58C-C67F-F0A8-F482805D7EEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1493,7 +1471,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA105B4-51A7-9A4A-04EC-9F2B40593C10}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DA7829-5CBB-B57D-FCAF-36C56C238F88}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1512,7 +1490,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2899F0F0-D2C3-D106-464D-BE3D8CCB79BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAFF5DF-4525-A974-A67F-D2FA51679695}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1543,7 +1521,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEC6E1E-498C-20DE-BB6E-CAE3F57B16DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B799B608-DD9D-3DF9-3DD4-8EB2148A3266}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1574,7 +1552,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDBAAE5-245D-8668-CE72-0785A00B70B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBFCF7C-071E-B6FA-A424-B8031707A01A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1617,7 +1595,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D60D946-E7BB-499C-A0BA-C8C8ACB9976E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B527CCDD-2395-43D3-84B6-A7C16B3D0247}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1633,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B496B0B-8BE6-42DE-B82D-3F09A1DE514C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5040868B-FA5A-445E-BEC5-471F87234C26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1676,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A109F887-BD4F-4A2E-9203-9661E401E8B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC947DDC-0AC1-49BC-80BD-FA4ECF07B7EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9EF6D-4D55-4A22-8012-82050D8B8A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE53417-C126-4BC1-9C28-1AC48345D411}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2023,98 +2001,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5783,52 +5761,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="36">
-        <v>222</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1.468059780452321E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/NOVO_HAMBURGO.xlsx
+++ b/NOVO_HAMBURGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2733568-999F-4638-9496-2CBF34DE919B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD7816E-9175-4314-AFF5-EFA4166DAB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1269,7 +1269,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F58AF7A5-58CB-4170-A4FE-CD15088DC7E1}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{688CF3F4-17AB-4BA1-9A22-D7C1545593F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1299,10 +1299,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0429BD6-BAE8-4843-870E-8B9D8A1446CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3240DE94-35BA-4CF2-8938-19C6A4C186F0}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1340,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D60625C-1B8C-429D-8675-7B282348CFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE29199-94EA-4B1D-B670-D30C63E7AD5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339B63CA-F65A-4957-A05E-57DCB2112B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A2B97C-44BB-4C88-ADCC-F5D6C60CD7D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECDDAFE-A58C-C67F-F0A8-F482805D7EEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CBFFAC-B57D-B99A-6945-5EB99896BCF7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DA7829-5CBB-B57D-FCAF-36C56C238F88}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CE7B7B-26EC-1F9E-84D6-32939A642ACD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAFF5DF-4525-A974-A67F-D2FA51679695}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BEBDFB-B108-59E0-C9BB-DD4268C38510}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1521,7 +1521,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B799B608-DD9D-3DF9-3DD4-8EB2148A3266}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8850638E-E01B-E1B9-5D5E-4A3E5F833D3E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1552,7 +1552,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBFCF7C-071E-B6FA-A424-B8031707A01A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5B7D6D-5B04-56FF-2B40-000397B2EEBD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1595,7 +1595,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B527CCDD-2395-43D3-84B6-A7C16B3D0247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BA138B-4B30-4669-B5C5-559E6FEBF9FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5040868B-FA5A-445E-BEC5-471F87234C26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2DB0F6-90E4-417A-B5C9-4E1AA6DBB695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,50 +1658,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC947DDC-0AC1-49BC-80BD-FA4ECF07B7EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1989,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE53417-C126-4BC1-9C28-1AC48345D411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EAB969-7BBE-49D6-A616-1B0E3B368A54}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
